--- a/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A52B158-8DCF-4686-9EAA-07F3C658F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACC54B4-4031-4817-8D76-8C9D8B577D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10FBBFA6-1118-44FB-91AE-04DF8E7D531D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF02D1ED-8ABC-4A73-9FAF-64301CCFDBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
   <si>
     <t>Población según el por que no pagarían para reducir el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,02%)</t>
   </si>
@@ -110,523 +110,517 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>13,39%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>14,72%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>12,41%</t>
@@ -635,7 +629,7 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>15,03%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1050,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900523D7-8BD5-4FD3-BE6D-C7371E7B69F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0691222-C66D-4C77-B9CB-92F8A2A2EEF7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1659,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1668,13 @@
         <v>6674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1689,13 +1683,13 @@
         <v>4920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -1704,13 +1698,13 @@
         <v>11595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1778,13 +1772,13 @@
         <v>14799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1793,13 +1787,13 @@
         <v>9254</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -1808,13 +1802,13 @@
         <v>24053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1823,13 @@
         <v>45086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -1844,13 +1838,13 @@
         <v>46689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -1859,13 +1853,13 @@
         <v>91775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,10 +1874,10 @@
         <v>76854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>86</v>
@@ -1937,7 +1931,7 @@
         <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1946,13 +1940,13 @@
         <v>21407</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -1961,13 +1955,13 @@
         <v>54127</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1976,13 @@
         <v>17544</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -1997,13 +1991,13 @@
         <v>23018</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2012,13 +2006,13 @@
         <v>40562</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,7 +2068,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2086,13 +2080,13 @@
         <v>4707</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2101,13 +2095,13 @@
         <v>5272</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2116,13 +2110,13 @@
         <v>9979</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2131,13 @@
         <v>7983</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2152,13 +2146,13 @@
         <v>6299</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -2167,13 +2161,13 @@
         <v>14282</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2182,13 @@
         <v>37200</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -2203,13 +2197,13 @@
         <v>26442</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -2218,13 +2212,13 @@
         <v>63642</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2233,13 @@
         <v>7906</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2254,13 +2248,13 @@
         <v>10170</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2269,13 +2263,13 @@
         <v>18076</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2284,13 @@
         <v>4796</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2305,13 +2299,13 @@
         <v>5856</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -2320,13 +2314,13 @@
         <v>10652</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2388,13 @@
         <v>20536</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2409,13 +2403,13 @@
         <v>18605</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -2424,13 +2418,13 @@
         <v>39141</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2439,13 @@
         <v>63788</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -2460,13 +2454,13 @@
         <v>59425</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>174</v>
@@ -2475,13 +2469,13 @@
         <v>123213</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2490,13 @@
         <v>118929</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -2511,13 +2505,13 @@
         <v>92291</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>306</v>
@@ -2526,13 +2520,13 @@
         <v>211219</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2541,13 @@
         <v>45109</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -2562,13 +2556,13 @@
         <v>32974</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>
@@ -2577,13 +2571,13 @@
         <v>78083</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2592,13 @@
         <v>29014</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>54</v>
@@ -2613,13 +2607,13 @@
         <v>34965</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>93</v>
@@ -2628,13 +2622,13 @@
         <v>63979</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2684,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACC54B4-4031-4817-8D76-8C9D8B577D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A646A139-5C2B-4E75-95A8-81DBFD0C6031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF02D1ED-8ABC-4A73-9FAF-64301CCFDBAE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{52CDE86F-19CC-4E1C-814C-D055B5B3DAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Población según el por que no pagarían para reducir el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,571 +65,562 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
   </si>
   <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
     <t>No me siento responsable del ruido</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1044,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0691222-C66D-4C77-B9CB-92F8A2A2EEF7}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2C309C-0FFD-49E7-AE67-9F2D1CC8CE84}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,243 +1153,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4003</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7508</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>11760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>19268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6770</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>4975</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>11745</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1234</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4628</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>6814</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>11441</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,304 +1408,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>24143</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>1171</v>
+        <v>28840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>1171</v>
+        <v>52983</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>1030</v>
+        <v>9324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>4079</v>
+        <v>15493</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>5109</v>
+        <v>24817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>10718</v>
+        <v>65918</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>6437</v>
+        <v>48623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="N11" s="7">
-        <v>17156</v>
+        <v>114541</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7">
-        <v>4874</v>
+        <v>59134</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I12" s="7">
-        <v>5562</v>
+        <v>79705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>10436</v>
+        <v>138839</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>4483</v>
+        <v>19929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>1397</v>
+        <v>31425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>5880</v>
+        <v>51353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>6674</v>
+        <v>21848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>4920</v>
+        <v>17335</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="7">
         <v>60</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
       <c r="N14" s="7">
-        <v>11595</v>
+        <v>39183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,306 +1716,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>27779</v>
+        <v>176153</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22396</v>
+        <v>192580</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>67</v>
+        <v>494</v>
       </c>
       <c r="N15" s="7">
-        <v>50176</v>
+        <v>368733</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>14799</v>
+        <v>5208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>9254</v>
+        <v>4913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>24053</v>
+        <v>10121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>45086</v>
+        <v>6658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>46689</v>
+        <v>9114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>91775</v>
+        <v>15772</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>76854</v>
+        <v>26230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>60287</v>
+        <v>38738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>137141</v>
+        <v>64969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>32720</v>
+        <v>10326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>21407</v>
+        <v>7564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>54127</v>
+        <v>17890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>17544</v>
+        <v>5814</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>23018</v>
+        <v>5127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N20" s="7">
-        <v>40562</v>
+        <v>10941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,306 +2024,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7">
-        <v>187002</v>
+        <v>54236</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="I21" s="7">
-        <v>160655</v>
+        <v>65457</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>494</v>
+        <v>168</v>
       </c>
       <c r="N21" s="7">
-        <v>347657</v>
+        <v>119694</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>4707</v>
+        <v>18535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>5272</v>
+        <v>21485</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N22" s="7">
-        <v>9979</v>
+        <v>40020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>7983</v>
+        <v>80084</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="7">
         <v>94</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="7">
-        <v>10</v>
-      </c>
       <c r="I23" s="7">
-        <v>6299</v>
+        <v>69497</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="N23" s="7">
-        <v>14282</v>
+        <v>149581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D24" s="7">
-        <v>37200</v>
+        <v>92135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I24" s="7">
-        <v>26442</v>
+        <v>123418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="N24" s="7">
-        <v>63642</v>
+        <v>215553</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>7906</v>
+        <v>31489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I25" s="7">
-        <v>10170</v>
+        <v>43201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N25" s="7">
-        <v>18076</v>
+        <v>74690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
-        <v>4796</v>
+        <v>32290</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>5856</v>
+        <v>29276</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="N26" s="7">
-        <v>10652</v>
+        <v>61565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,369 +2332,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="D27" s="7">
-        <v>62593</v>
+        <v>254533</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="I27" s="7">
-        <v>54038</v>
+        <v>286877</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>168</v>
+        <v>729</v>
       </c>
       <c r="N27" s="7">
-        <v>116631</v>
+        <v>541410</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7">
-        <v>20536</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="7">
-        <v>25</v>
-      </c>
-      <c r="I28" s="7">
-        <v>18605</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="7">
-        <v>56</v>
-      </c>
-      <c r="N28" s="7">
-        <v>39141</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>94</v>
-      </c>
-      <c r="D29" s="7">
-        <v>63788</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="7">
-        <v>80</v>
-      </c>
-      <c r="I29" s="7">
-        <v>59425</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M29" s="7">
-        <v>174</v>
-      </c>
-      <c r="N29" s="7">
-        <v>123213</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>162</v>
-      </c>
-      <c r="D30" s="7">
-        <v>118929</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="7">
-        <v>144</v>
-      </c>
-      <c r="I30" s="7">
-        <v>92291</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="7">
-        <v>306</v>
-      </c>
-      <c r="N30" s="7">
-        <v>211219</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>54</v>
-      </c>
-      <c r="D31" s="7">
-        <v>45109</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="7">
-        <v>47</v>
-      </c>
-      <c r="I31" s="7">
-        <v>32974</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M31" s="7">
-        <v>101</v>
-      </c>
-      <c r="N31" s="7">
-        <v>78083</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7">
-        <v>29014</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="7">
-        <v>54</v>
-      </c>
-      <c r="I32" s="7">
-        <v>34965</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" s="7">
-        <v>93</v>
-      </c>
-      <c r="N32" s="7">
-        <v>63979</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="A28" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>380</v>
-      </c>
-      <c r="D33" s="7">
-        <v>277375</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>350</v>
-      </c>
-      <c r="I33" s="7">
-        <v>238260</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="7">
-        <v>730</v>
-      </c>
-      <c r="N33" s="7">
-        <v>515635</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
